--- a/biology/Zoologie/Dendropithecidae/Dendropithecidae.xlsx
+++ b/biology/Zoologie/Dendropithecidae/Dendropithecidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dendropithecidae sont une famille fossile de singes catarrhiniens appartenant vraisemblablement à la super-famille des Hominoidea, et ayant vécu en Afrique de l'Est durant le Miocène inférieur et moyen. Cette famille rassemble des singes de petite taille (de 3 à 10 kg).
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les paléoprimatologues ne sont pas tous d'accord pour classer les Dendropithecidae dans la super-famille des Hominoidea. Pour certains chercheurs, les Dendropithecidae seraient plutôt des catarrhiniens basaux.
 </t>
@@ -542,9 +556,11 @@
           <t>Arbre phylogénétique[Quoi ?]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des familles de singes, d'après Perelman et al. (2011)[2] et Springer et al. (2012)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des familles de singes, d'après Perelman et al. (2011) et Springer et al. (2012) :
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fossiles attribués à cette famille ont été trouvés au Kenya et en Ouganda et sont datés de 20 à 12 millions d'années[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fossiles attribués à cette famille ont été trouvés au Kenya et en Ouganda et sont datés de 20 à 12 millions d'années.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Cette famille comprend trois genres et huit espèces[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cette famille comprend trois genres et huit espèces :
 † Dendropithecus (Andrews &amp; Simons, 1977)
 † Dendropithecus macinnesi (Le Gros Clark &amp; Leakey, 1950)
 † Dendropithecus ugandensis (Pickford et al., 2010)
